--- a/docs/기능 정의서.xlsx
+++ b/docs/기능 정의서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Desktop\etri팀 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Property\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7100"/>
+    <workbookView xWindow="0" yWindow="920" windowWidth="19200" windowHeight="7100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="118">
   <si>
     <t>Ver 002</t>
   </si>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>나의 계약</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 진행중인 계약 내역</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -440,6 +436,22 @@
   </si>
   <si>
     <t>돌아가기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기중인 매물 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기중인 매물들과 현재 진행중인 계약 리스트를 보여준다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임대인의 경우 삭제하기 버튼이 표시된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -677,6 +689,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -686,197 +709,203 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1160,795 +1189,787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.9140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="21.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="3">
         <v>20191212</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="10"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="11" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="11" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="31"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="35" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="61"/>
     </row>
     <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="35" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="61"/>
     </row>
     <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="35" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="61"/>
     </row>
     <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="35" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="35" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="37" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="10"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="11" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="11" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="10"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="11" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="10"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="11" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="39"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="12"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="13" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="40"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="10"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="11" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="55"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="12"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="40" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="56"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="34"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="E25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="57"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="10"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="37"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="34"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="57"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="12"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="39" t="s">
+      <c r="F26" s="37"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="35"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="57"/>
-    </row>
-    <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="8" t="s">
+      <c r="B28" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="34"/>
+    </row>
+    <row r="30" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="57"/>
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="34"/>
+      <c r="B31" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E32" s="43"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="57"/>
+      <c r="F33" s="32"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="42" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="10"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="13" t="s">
+      <c r="E34" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="1:6" ht="11" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="34"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" ht="4" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="34"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="43"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="35"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="32"/>
+    </row>
+    <row r="38" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="43"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="57"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="34"/>
+      <c r="B41" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="58"/>
-    </row>
-    <row r="31" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="58"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="59"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="63"/>
-    </row>
-    <row r="34" spans="1:6" ht="11" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="10"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="58"/>
-    </row>
-    <row r="35" spans="1:6" ht="4" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="10"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="15" t="s">
+      <c r="E41" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="34"/>
+      <c r="B47" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="55"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="56"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="34"/>
+      <c r="B50" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="58"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="12"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="59"/>
-    </row>
-    <row r="37" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="11" t="s">
+      <c r="F50" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="34"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="10"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="10"/>
-      <c r="B40" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="F51" s="37"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="38"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="34"/>
+      <c r="B53" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="36"/>
+      <c r="D53" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="39"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="10"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="40"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="10"/>
-      <c r="B46" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="31"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="10"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="41"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="10"/>
-      <c r="B49" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="10"/>
-      <c r="B50" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="43"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="47" t="s">
+      <c r="B55" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="C55" s="45"/>
+      <c r="D55" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="49" t="s">
+      <c r="E55" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="E56" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F56" s="46"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="49"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="E57" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="46"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="49"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="46"/>
+      <c r="E58" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="46"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="46"/>
+      <c r="E59" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" s="46"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="49"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="46"/>
+      <c r="E60" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="46"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="47"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="29" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="22"/>
-      <c r="E54" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" s="22"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="22"/>
-      <c r="E55" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="22"/>
-      <c r="E56" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="22"/>
-      <c r="E57" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="F58" s="23"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="55" t="s">
+      <c r="B62" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="55" t="s">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54" t="s">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="F52:F58"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A37:A51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
+  <mergeCells count="53">
+    <mergeCell ref="F24:F27"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="A1:E2"/>
@@ -1960,6 +1981,47 @@
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C20"/>
     <mergeCell ref="F8:F14"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A38:A54"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="D36:D37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
